--- a/Documenten/logboek game.xlsx
+++ b/Documenten/logboek game.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="25020" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="25020" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="weeknr 47" sheetId="1" r:id="rId1"/>
-    <sheet name="week 47" sheetId="2" r:id="rId2"/>
+    <sheet name="week 48" sheetId="2" r:id="rId2"/>
     <sheet name="Totaal" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:W33"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>Logboek</t>
   </si>
@@ -74,6 +73,9 @@
   </si>
   <si>
     <t>Heb de database op orde gemaakt. De inlog gegeven en registratie moet nog gemaakt worden.</t>
+  </si>
+  <si>
+    <t>Donderdag</t>
   </si>
 </sst>
 </file>
@@ -465,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -683,7 +685,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="8">
@@ -695,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="8">
@@ -707,14 +709,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
       <c r="F19" s="13"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -727,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="8">
@@ -739,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="9"/>
@@ -752,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="8"/>
@@ -762,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="8"/>
@@ -772,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="8"/>
@@ -782,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="3"/>
@@ -804,12 +806,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="3"/>
     <col min="6" max="6" width="37.7109375" customWidth="1"/>
   </cols>
@@ -885,9 +889,15 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5">
+        <v>41636</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.61805555555555558</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8">
         <v>1</v>
@@ -895,7 +905,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="9">
         <f>D7-C7</f>
-        <v>0</v>
+        <v>-0.61805555555555558</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -1018,7 +1028,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="8">
@@ -1030,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="8">
@@ -1042,14 +1052,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
       <c r="F19" s="13"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1062,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="8">
@@ -1074,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="9"/>
@@ -1087,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="8"/>
@@ -1097,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="8"/>
@@ -1107,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="8"/>
@@ -1117,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="F26" s="3" t="s">
@@ -1125,7 +1135,7 @@
       </c>
       <c r="G26" s="9">
         <f>SUM(G7:G22)</f>
-        <v>0</v>
+        <v>-0.61805555555555558</v>
       </c>
     </row>
   </sheetData>

--- a/Documenten/logboek game.xlsx
+++ b/Documenten/logboek game.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="25020" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="25020" windowHeight="11130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="weeknr 47" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Totaal" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>Logboek</t>
   </si>
@@ -76,6 +77,15 @@
   </si>
   <si>
     <t>Donderdag</t>
+  </si>
+  <si>
+    <t>bug fix connect_db</t>
+  </si>
+  <si>
+    <t>Login tabel gemaakt database. User tabel gemaakt database.</t>
+  </si>
+  <si>
+    <t>config map aangemaakt. Classes map aangemaakt. Config.php gemaakt en de eerste classen aan begonnen</t>
   </si>
 </sst>
 </file>
@@ -807,7 +817,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F18" sqref="F16:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,44 +908,60 @@
       <c r="C7" s="9">
         <v>0.61805555555555558</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="G7" s="9">
         <f>D7-C7</f>
-        <v>-0.61805555555555558</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="C8" s="9">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.64861111111111114</v>
+      </c>
       <c r="E8" s="8">
         <v>2</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="9">
         <f t="shared" ref="G8:G18" si="0">D8-C8</f>
-        <v>0</v>
+        <v>1.3194444444444509E-2</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="9">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E9" s="8">
         <v>3</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -1135,7 +1161,7 @@
       </c>
       <c r="G26" s="9">
         <f>SUM(G7:G22)</f>
-        <v>-0.61805555555555558</v>
+        <v>4.7916666666666607E-2</v>
       </c>
     </row>
   </sheetData>
